--- a/Excel/镇魂街/national_corps军团表.xlsx
+++ b/Excel/镇魂街/national_corps军团表.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
   <si>
     <t>sheet名</t>
   </si>
@@ -370,26 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特性1
--效果2数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性1
--效果1id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性1
--效果1数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性1
--效果2id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特性2
 -受影响地形</t>
   </si>
@@ -398,46 +378,6 @@
 -受影响地形</t>
   </si>
   <si>
-    <t>特性2
--效果1id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性2
--效果1数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性2
--效果2id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性2
--效果2数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性3
--效果1id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性3
--效果1数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性3
--效果2id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性3
--效果2数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特性1
 -受影响地形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,66 +436,6 @@
   </si>
   <si>
     <t>行军速度降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Terrain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[2].Terrain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[2].Type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[2].Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[2].Type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[2].Value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Terrain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Value2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,6 +545,84 @@
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[1].Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[1].Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性1
+-效果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性1
+-效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[2].Type</t>
+  </si>
+  <si>
+    <t>Effect[2].Value</t>
+  </si>
+  <si>
+    <t>特性2
+-效果id</t>
+  </si>
+  <si>
+    <t>特性2
+-效果数值</t>
+  </si>
+  <si>
+    <t>Effect[2].Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[1].Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect[3].Terrain</t>
+  </si>
+  <si>
+    <t>Effect[3].Type</t>
+  </si>
+  <si>
+    <t>Effect[3].Value</t>
+  </si>
+  <si>
+    <t>特性3
+-效果id</t>
+  </si>
+  <si>
+    <t>特性3
+-效果数值</t>
+  </si>
+  <si>
+    <t>Effect[4].Terrain</t>
+  </si>
+  <si>
+    <t>Effect[4].Type</t>
+  </si>
+  <si>
+    <t>Effect[4].Value</t>
+  </si>
+  <si>
+    <t>特性4
+-受影响地形</t>
+  </si>
+  <si>
+    <t>特性4
+-效果id</t>
+  </si>
+  <si>
+    <t>特性4
+-效果数值</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BC40"/>
+  <dimension ref="A1:AZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1371,31 +1329,32 @@
     <col min="3" max="3" width="11.25" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="20" width="10.875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.25" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="3"/>
+    <col min="6" max="14" width="12.125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="10.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.25" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -1412,110 +1371,104 @@
         <v>18</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>130</v>
+      <c r="R1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
@@ -1528,11 +1481,8 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1549,49 +1499,49 @@
         <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
       </c>
       <c r="U2" t="s">
         <v>63</v>
@@ -1603,58 +1553,49 @@
         <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:52" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1671,112 +1612,103 @@
         <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>95</v>
+      <c r="M3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>97</v>
+        <v>127</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="S3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="V3" s="4" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="AB3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="AD3" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1793,42 +1725,42 @@
       <c r="F4" s="17"/>
       <c r="K4" s="17"/>
       <c r="P4" s="17"/>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
       <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="X4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="21" t="s">
+      <c r="V4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="W4" s="3">
         <v>100</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="X4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="Y4" s="3">
         <v>100</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="Z4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AA4" s="3">
         <v>100</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AB4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AC4" s="3">
         <v>100</v>
       </c>
-      <c r="AG4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AM4" s="21"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="AD4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AJ4" s="21"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1851,98 +1783,87 @@
       <c r="H5" s="3">
         <v>0.1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="17">
         <v>2</v>
       </c>
       <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
         <v>0.1</v>
       </c>
-      <c r="K5" s="17">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="17">
         <v>3</v>
       </c>
       <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <v>0.1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="17"/>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" s="3">
+        <v>20</v>
+      </c>
+      <c r="U5" s="3">
         <v>4</v>
       </c>
-      <c r="O5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>7</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>81</v>
+      <c r="V5" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W5" s="3">
-        <v>20</v>
-      </c>
-      <c r="X5" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>105</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>105</v>
+      </c>
+      <c r="AD5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AE5" s="3">
         <v>105</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AG5" s="3">
         <v>105</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AH5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AI5" s="3">
         <v>105</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AK5" s="3">
         <v>105</v>
       </c>
-      <c r="AG5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AI5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AK5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AM5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1960,103 +1881,92 @@
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <v>0.1</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
+      <c r="I6" s="17">
+        <v>5</v>
       </c>
       <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.1</v>
       </c>
-      <c r="K6" s="17">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>3</v>
+      <c r="L6" s="17">
+        <v>6</v>
       </c>
       <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
         <v>0.1</v>
       </c>
-      <c r="N6" s="3">
-        <v>4</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>7</v>
-      </c>
+      <c r="P6" s="17"/>
       <c r="R6" s="3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="3">
+        <v>20</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W6" s="3">
-        <v>20</v>
-      </c>
-      <c r="X6" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>110</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>110</v>
+      </c>
+      <c r="AD6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AE6" s="3">
         <v>110</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AF6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AG6" s="3">
         <v>110</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AH6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AI6" s="3">
         <v>110</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AJ6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AK6" s="3">
         <v>110</v>
       </c>
-      <c r="AG6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AI6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AK6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AM6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -2074,103 +1984,92 @@
         <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>0.1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="17">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
         <v>0.1</v>
       </c>
-      <c r="K7" s="17">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>4</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>7</v>
-      </c>
+      <c r="P7" s="17"/>
       <c r="R7" s="3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="3">
+        <v>20</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W7" s="3">
-        <v>20</v>
-      </c>
-      <c r="X7" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>115</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>115</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>115</v>
+      </c>
+      <c r="AD7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AE7" s="3">
         <v>115</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AF7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AG7" s="3">
         <v>115</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AH7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AI7" s="3">
         <v>115</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AJ7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AK7" s="3">
         <v>115</v>
       </c>
-      <c r="AG7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AI7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AK7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AM7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -2188,103 +2087,92 @@
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0.1</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
+      <c r="I8" s="17">
+        <v>6</v>
       </c>
       <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.1</v>
       </c>
-      <c r="K8" s="17">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3</v>
+      <c r="L8" s="17">
+        <v>1</v>
       </c>
       <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
         <v>0.1</v>
       </c>
-      <c r="N8" s="3">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>7</v>
-      </c>
+      <c r="P8" s="17"/>
       <c r="R8" s="3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="3">
+        <v>20</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W8" s="3">
-        <v>20</v>
-      </c>
-      <c r="X8" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AE8" s="3">
         <v>120</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AF8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AG8" s="3">
         <v>120</v>
       </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AH8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AI8" s="3">
         <v>120</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AJ8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AK8" s="3">
         <v>120</v>
       </c>
-      <c r="AG8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AK8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AM8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -2307,98 +2195,87 @@
       <c r="H9" s="3">
         <v>0.1</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
+      <c r="I9" s="17">
+        <v>3</v>
       </c>
       <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.1</v>
       </c>
-      <c r="K9" s="17">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3</v>
+      <c r="L9" s="17">
+        <v>5</v>
       </c>
       <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>0.1</v>
       </c>
-      <c r="N9" s="3">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>7</v>
-      </c>
+      <c r="P9" s="17"/>
       <c r="R9" s="3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="3">
+        <v>20</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W9" s="3">
-        <v>20</v>
-      </c>
-      <c r="X9" s="3">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>125</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>125</v>
+      </c>
+      <c r="AD9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AE9" s="3">
         <v>125</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AF9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AG9" s="3">
         <v>125</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AH9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AI9" s="3">
         <v>125</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AJ9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AK9" s="3">
         <v>125</v>
       </c>
-      <c r="AG9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AI9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AK9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AM9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -2416,103 +2293,92 @@
         <v>6</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
         <v>0.1</v>
       </c>
-      <c r="I10" s="3">
-        <v>2</v>
+      <c r="I10" s="17">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <v>0.1</v>
       </c>
-      <c r="K10" s="17">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
+      <c r="L10" s="17">
+        <v>6</v>
       </c>
       <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
         <v>0.1</v>
       </c>
-      <c r="N10" s="3">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>7</v>
-      </c>
+      <c r="P10" s="17"/>
       <c r="R10" s="3">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10" s="3">
+        <v>20</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="W10" s="3">
-        <v>20</v>
-      </c>
-      <c r="X10" s="3">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>130</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>130</v>
+      </c>
+      <c r="AD10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AE10" s="3">
         <v>130</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AF10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AG10" s="3">
         <v>130</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AH10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AI10" s="3">
         <v>130</v>
       </c>
-      <c r="AE10" s="21" t="s">
+      <c r="AJ10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AK10" s="3">
         <v>130</v>
       </c>
-      <c r="AG10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AI10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AK10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AM10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -2522,7 +2388,7 @@
       <c r="K11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -2532,7 +2398,7 @@
       <c r="K12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -2542,7 +2408,7 @@
       <c r="K13" s="17"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -2552,7 +2418,7 @@
       <c r="K14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -2562,7 +2428,7 @@
       <c r="K15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -2837,16 +2703,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2854,13 +2720,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,13 +2734,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2882,13 +2748,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,13 +2762,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2910,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2924,13 +2790,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2938,13 +2804,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/national_corps军团表.xlsx
+++ b/Excel/镇魂街/national_corps军团表.xlsx
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
   <si>
     <t>sheet名</t>
   </si>
@@ -579,17 +579,6 @@
 -效果数值</t>
   </si>
   <si>
-    <t>Effect[2].Terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[1].Terrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect[3].Terrain</t>
-  </si>
-  <si>
     <t>Effect[3].Type</t>
   </si>
   <si>
@@ -604,25 +593,56 @@
 -效果数值</t>
   </si>
   <si>
-    <t>Effect[4].Terrain</t>
-  </si>
-  <si>
-    <t>Effect[4].Type</t>
-  </si>
-  <si>
-    <t>Effect[4].Value</t>
-  </si>
-  <si>
-    <t>特性4
--受影响地形</t>
-  </si>
-  <si>
-    <t>特性4
--效果id</t>
-  </si>
-  <si>
-    <t>特性4
--效果数值</t>
+    <t>EffectTerrain[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTerrain[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTerrain[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[1].Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[1].Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[2].Type</t>
+  </si>
+  <si>
+    <t>CorpsEffect[2].Value</t>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果1-类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果1-值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果2-类型</t>
+  </si>
+  <si>
+    <t>军团效果2-值</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1337,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AZ40"/>
+  <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1329,32 +1349,38 @@
     <col min="3" max="3" width="11.25" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="14" width="12.125" style="3" customWidth="1"/>
-    <col min="15" max="17" width="10.875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.25" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="19.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="12.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -1370,103 +1396,105 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
@@ -1481,8 +1509,9 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA1" s="2"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1499,16 +1528,16 @@
         <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>104</v>
@@ -1534,68 +1563,71 @@
       <c r="Q2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
         <v>63</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>59</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>58</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>63</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>59</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1611,104 +1643,107 @@
       <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>129</v>
+      <c r="Q3" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1722,45 +1757,48 @@
       <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="R4" s="3">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="S4" s="3">
         <v>2</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="3">
-        <v>100</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AC4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AJ4" s="21"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AD4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AK4" s="21"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1774,96 +1812,83 @@
       <c r="E5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="S5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="T5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="3">
+        <v>20</v>
+      </c>
+      <c r="V5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="17">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="3">
-        <v>20</v>
-      </c>
-      <c r="U5" s="3">
-        <v>4</v>
-      </c>
-      <c r="V5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>105</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="Y5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>105</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>105</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AC5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>105</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AF5" s="3">
         <v>105</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AG5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <v>105</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AJ5" s="3">
         <v>105</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AK5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AL5" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1877,96 +1902,83 @@
       <c r="E6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
         <v>0.1</v>
       </c>
-      <c r="I6" s="17">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="H6" s="15">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="17">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>20</v>
       </c>
-      <c r="U6" s="3">
-        <v>6</v>
-      </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
+      <c r="W6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>110</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="Y6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>110</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="AA6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>110</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AC6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>110</v>
       </c>
-      <c r="AD6" s="21" t="s">
+      <c r="AE6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>110</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AG6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>110</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AI6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AJ6" s="3">
         <v>110</v>
       </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AK6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AL6" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1980,96 +1992,83 @@
       <c r="E7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
         <v>0.1</v>
       </c>
-      <c r="I7" s="17">
+      <c r="H7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="S7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="17">
-        <v>2</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>20</v>
       </c>
-      <c r="U7" s="3">
-        <v>8</v>
-      </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="3">
+        <v>4</v>
+      </c>
+      <c r="W7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>115</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="Y7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>115</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="AA7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>115</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AC7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>115</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AE7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <v>115</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AG7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AH7" s="3">
         <v>115</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AI7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AJ7" s="3">
         <v>115</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="AK7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AL7" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -2083,96 +2082,83 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
         <v>0.1</v>
       </c>
-      <c r="I8" s="17">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="I8" s="3">
         <v>0.1</v>
       </c>
-      <c r="L8" s="17">
+      <c r="J8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="S8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20</v>
       </c>
-      <c r="U8" s="3">
-        <v>10</v>
-      </c>
-      <c r="V8" s="21" t="s">
+      <c r="V8" s="3">
+        <v>5</v>
+      </c>
+      <c r="W8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>120</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="Y8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>120</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AA8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>120</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>120</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>120</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AG8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>120</v>
       </c>
-      <c r="AH8" s="21" t="s">
+      <c r="AI8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>120</v>
       </c>
-      <c r="AJ8" s="21" t="s">
+      <c r="AK8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -2186,96 +2172,83 @@
       <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="17">
-        <v>5</v>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
       <c r="G9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="S9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="17">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="17">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20</v>
       </c>
-      <c r="U9" s="3">
-        <v>12</v>
-      </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="3">
+        <v>6</v>
+      </c>
+      <c r="W9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>125</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="Y9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>125</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AA9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>125</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AC9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>125</v>
       </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AE9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>125</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AG9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="3">
         <v>125</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AI9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AJ9" s="3">
         <v>125</v>
       </c>
-      <c r="AJ9" s="21" t="s">
+      <c r="AK9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AL9" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -2289,394 +2262,471 @@
       <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="17">
-        <v>6</v>
+      <c r="F10" s="3">
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
         <v>0.1</v>
       </c>
-      <c r="I10" s="17">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="I10" s="3">
         <v>0.1</v>
       </c>
-      <c r="L10" s="17">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="J10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="S10" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="17"/>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20</v>
       </c>
-      <c r="U10" s="3">
-        <v>14</v>
-      </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="3">
+        <v>7</v>
+      </c>
+      <c r="W10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>130</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>130</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="AA10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>130</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AC10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>130</v>
       </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AE10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>130</v>
       </c>
-      <c r="AF10" s="21" t="s">
+      <c r="AG10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AH10" s="3">
         <v>130</v>
       </c>
-      <c r="AH10" s="21" t="s">
+      <c r="AI10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AJ10" s="3">
         <v>130</v>
       </c>
-      <c r="AJ10" s="21" t="s">
+      <c r="AK10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AL10" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="P12" s="17"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="P19" s="17"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="P20" s="17"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="P22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="17"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="P28" s="17"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="17"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="17"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="17"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="P37" s="17"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="O40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/镇魂街/national_corps军团表.xlsx
+++ b/Excel/镇魂街/national_corps军团表.xlsx
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="315">
   <si>
     <t>sheet名</t>
   </si>
@@ -269,10 +269,6 @@
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>征1兵耗时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,167 +379,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科技效果id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银木产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤铁产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精石产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵谷产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源产量提高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军速度增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军速度降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>军团加成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)+联盟占领城市加成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>实际行军时间=基础行军时间/(1+科技加成%+国战天赋加成%+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>军团加成%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>实际产量=(占领资源点产量+科技产量)*(1+联盟加成%+科技加成%+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>军团加成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)+联盟占领城市加成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>实际行军时间=基础行军时间/(1+科技加成%+国战天赋加成%+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>军团加成%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,37 +459,1469 @@
     <t>CorpsEffect[2].Value</t>
   </si>
   <si>
+    <t>军团效果1-类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果1-值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果2-类型</t>
+  </si>
+  <si>
+    <t>军团效果2-值</t>
+  </si>
+  <si>
+    <t>效果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铁产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵谷产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集银木</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际获得量=基础获得量*(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得赤铁数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集精石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集加成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得资源数量提升</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技研究速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力恢复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际征募时间=基础征募时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=卡牌基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募消耗资源降低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人受到伤害降低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成科技id
+该科技对该军团的该效果加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[1].TechId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用模块及生效范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战天赋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际产量=(占领资源点产量+科技数值产量)*(1+联盟加成%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+联盟占领城市加成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冶炼精通II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精石产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁精通II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效利用II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库资源容量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得银木数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集赤铁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集灵谷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得灵谷数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集获得精石数量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集资源速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际采集时间=基础采集时间/(1+科技加成%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际获得量=基础获得量*(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际行军时间=基础行军时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际科研时间=基础科研时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=卡牌基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+军团增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌行动力恢复速度提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>卡牌总行动力恢复速率=基础速率/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>军力上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌军力值上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力上限提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=城镇基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备军力恢复速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恢复速率=基础速率/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)        有军团加成的参照下方id40</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大队伍数量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=基础上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守解锁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的驻守功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启功能 0.不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁队伍的采集功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启功能 0.不开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木精通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际产量=(占领资源点产量+科技数值产量)*(1+联盟加成%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)+联盟占领城市加成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石精通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募消耗降低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇剿匪行军速度提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往资源区行军速度提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍行军速度提升</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际行军时间=基础行军时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌自身</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际征募时间=基础征募时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹王骑-征募速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在虎豹王骑军团中，征募速度提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用效果，之后添加更多类似的，即在某某军团下，有xx效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守时受到伤害降低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍所在城镇储备军力恢复速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际恢复时间=基础时间/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%+军团加成%)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍讨伐野怪获得的经验提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际经验=基础经验*(1+军团加成%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵造成伤害提高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用该军团的队伍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地数量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加领地数量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上限=声望对应上限+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技加成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹王骑-强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升虎豹王骑驻守时受到伤害降低效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车下灵卫-强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升车下灵卫采集获得资源量收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无当玄军-强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升无当玄军行军速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导军团-强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升魔导军团卡牌行动力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡武灵-强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升天罡武灵守护灵造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐灵甲士-强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升隐灵甲士资源区行军速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始军团，无效果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技强化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹王骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻守时受到伤害降低10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍所在城镇储备军力恢复速度+30%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车下灵卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集产量收益提高15%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募速度提高10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无当玄军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军速度提高15%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>征募消耗降低10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍内卡牌行动力上限+10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人受到伤害降低15%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡武灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇剿匪行军速度提高30%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵造成伤害提高10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往资源区行军速度提高20%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍讨伐野怪获得的经验提高15%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[2].TechId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团效果1-描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'军团效果2-描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始军团，全靠莽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[1].ValueType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果数值类型
+1.百分比
+2.数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffect[2].ValueType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffectDes[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorpsEffectDes[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;驻守时受到伤害降低&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;采集产量收益提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;行军速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;队伍内卡牌行动力上限增加&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;城镇剿匪行军速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;队伍所在城镇储备军力恢复速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;征募速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;征募消耗降低&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;寄灵人受到伤害降低&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;守护灵造成伤害提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#444443&gt;队伍讨伐野怪获得的经验提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>征1兵耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>float:&lt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军团效果1-类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军团效果1-值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军团效果2-类型</t>
-  </si>
-  <si>
-    <t>军团效果2-值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +1965,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,8 +1993,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -742,6 +2052,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,7 +2091,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -813,8 +2149,54 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +2206,113 @@
     <cellStyle name="英文标题" xfId="1"/>
     <cellStyle name="中文标题" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1337,10 +2825,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,26 +2837,23 @@
     <col min="3" max="3" width="11.25" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="12.125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18" style="3" customWidth="1"/>
-    <col min="21" max="21" width="19.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.25" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="35.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.25" style="3" customWidth="1"/>
+    <col min="14" max="15" width="20" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="12.125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="18" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.25" style="3" customWidth="1"/>
     <col min="31" max="31" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.125" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.25" style="3" bestFit="1" customWidth="1"/>
@@ -1377,10 +2862,16 @@
     <col min="36" max="36" width="17.125" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="3"/>
+    <col min="39" max="39" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -1397,110 +2888,122 @@
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -1510,8 +3013,14 @@
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1527,74 +3036,74 @@
       <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>128</v>
+      <c r="F2" t="s">
+        <v>295</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>104</v>
+        <v>291</v>
+      </c>
+      <c r="K2" t="s">
+        <v>295</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>58</v>
+      <c r="AB2" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="AC2" t="s">
         <v>59</v>
@@ -1626,8 +3135,26 @@
       <c r="AL2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:53" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1644,106 +3171,124 @@
         <v>19</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>89</v>
+        <v>111</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>116</v>
+      <c r="M3" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>88</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="S3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AE3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1757,48 +3302,56 @@
       <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>296</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="S4" s="3">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="Y4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="21" t="s">
+      <c r="AB4" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC4" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="X4" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="AD4" s="3">
         <v>5</v>
       </c>
-      <c r="AE4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AI4" s="21"/>
+      <c r="AE4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>5</v>
+      </c>
       <c r="AK4" s="21"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AM4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AQ4" s="21"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1812,83 +3365,98 @@
       <c r="E5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="3">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>4</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="J5" s="3">
+        <v>6102007</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="15">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.3</v>
+      </c>
       <c r="P5" s="17"/>
-      <c r="S5" s="3">
+      <c r="S5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="Y5" s="3">
         <v>1</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="3">
+      <c r="Z5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="3">
         <v>20</v>
       </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="21" t="s">
+      <c r="AB5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="3">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="21" t="s">
+      <c r="AD5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AF5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AH5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AJ5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AF5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AL5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AN5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" s="3">
-        <v>105</v>
-      </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AP5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1902,83 +3470,98 @@
       <c r="E6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6102008</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="15">
+        <v>17</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" s="3">
-        <v>20</v>
-      </c>
-      <c r="V6" s="3">
-        <v>3</v>
-      </c>
-      <c r="W6" s="21" t="s">
+      <c r="AI6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="3">
-        <v>110</v>
-      </c>
-      <c r="Y6" s="21" t="s">
+      <c r="AL6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AN6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AP6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AG6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AI6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>110</v>
-      </c>
-      <c r="AK6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR6" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1992,83 +3575,98 @@
       <c r="E7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="3">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6102009</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="15">
+        <v>31</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="AG7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" s="3">
-        <v>20</v>
-      </c>
-      <c r="V7" s="3">
-        <v>4</v>
-      </c>
-      <c r="W7" s="21" t="s">
+      <c r="AI7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="3">
-        <v>115</v>
-      </c>
-      <c r="Y7" s="21" t="s">
+      <c r="AL7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AN7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AP7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AG7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AI7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>115</v>
-      </c>
-      <c r="AK7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR7" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -2082,83 +3680,98 @@
       <c r="E8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3">
-        <v>4</v>
+      <c r="F8" s="39" t="s">
+        <v>304</v>
       </c>
       <c r="G8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="15">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="M8" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6102010</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="L8" s="15">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.15</v>
+      </c>
       <c r="P8" s="17"/>
-      <c r="S8" s="3">
+      <c r="S8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="Y8" s="3">
         <v>1</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="3">
         <v>20</v>
       </c>
-      <c r="V8" s="3">
+      <c r="AB8" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ8" s="3">
         <v>5</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="AK8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X8" s="3">
-        <v>120</v>
-      </c>
-      <c r="Y8" s="21" t="s">
+      <c r="AL8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AN8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AP8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AG8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>120</v>
-      </c>
-      <c r="AK8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -2172,83 +3785,98 @@
       <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="3">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L9" s="15">
+        <v>42</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>0.1</v>
       </c>
-      <c r="H9" s="15">
+      <c r="O9" s="3">
+        <v>6102011</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="3">
-        <v>20</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="AI9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ9" s="3">
         <v>6</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="AK9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="3">
-        <v>125</v>
-      </c>
-      <c r="Y9" s="21" t="s">
+      <c r="AL9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AN9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AP9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AE9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AG9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AI9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>125</v>
-      </c>
-      <c r="AK9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -2262,83 +3890,98 @@
       <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="3">
-        <v>2</v>
+      <c r="F10" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="G10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="15">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="M10" s="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6102012</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" s="15">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.15</v>
+      </c>
       <c r="P10" s="17"/>
-      <c r="S10" s="3">
+      <c r="S10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="Y10" s="3">
         <v>1</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="3">
         <v>20</v>
       </c>
-      <c r="V10" s="3">
-        <v>7</v>
-      </c>
-      <c r="W10" s="21" t="s">
+      <c r="AB10" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AC10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X10" s="3">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="21" t="s">
+      <c r="AD10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AF10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AH10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AE10" s="21" t="s">
+      <c r="AJ10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AF10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AG10" s="21" t="s">
+      <c r="AL10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AM10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AH10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AI10" s="21" t="s">
+      <c r="AN10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AO10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AJ10" s="3">
-        <v>130</v>
-      </c>
-      <c r="AK10" s="21" t="s">
+      <c r="AP10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AQ10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AL10" s="3">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AR10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -2348,10 +3991,16 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17"/>
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -2361,10 +4010,16 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -2374,270 +4029,395 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="I14" s="42"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="17"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="I15" s="42"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="17"/>
+      <c r="U15" s="17"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I16" s="42"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="17"/>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G17" s="42"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="17"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G18" s="42"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="17"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="42"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="17"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="17"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G22" s="42"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="17"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="17"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="42"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="17"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="17"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G24" s="42"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="17"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="17"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G25" s="42"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="17"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="17"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G26" s="42"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="17"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="17"/>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="17"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="17"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="17"/>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="17"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17"/>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="17"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="17"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="17"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="17"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="17"/>
-      <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -2647,10 +4427,16 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="17"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -2660,10 +4446,16 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="17"/>
-      <c r="O35" s="17"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="17"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -2673,10 +4465,16 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="17"/>
-      <c r="O36" s="17"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="17"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -2686,10 +4484,16 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="17"/>
-      <c r="O37" s="17"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="17"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
@@ -2699,10 +4503,16 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="17"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="17"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
@@ -2712,10 +4522,16 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="17"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="17"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
@@ -2726,7 +4542,13 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
       <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="U40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2738,133 +4560,1391 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="B4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B6" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="B7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="B8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="32">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="32">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="32">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="32">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="32">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="32">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="32">
+        <v>41</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>42</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>43</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="34">
+        <v>44</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>45</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
+        <v>46</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="32">
+        <v>47</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
+        <v>48</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>49</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>50</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="39">
+        <v>15</v>
+      </c>
+      <c r="D60" s="39"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
+      <c r="B61" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="40"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="39">
+        <v>20</v>
+      </c>
+      <c r="D63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="39">
+        <v>20</v>
+      </c>
+      <c r="D66" s="39"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="39">
+        <v>20</v>
+      </c>
+      <c r="D69" s="39"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="40"/>
+      <c r="B70" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="39">
+        <v>15</v>
+      </c>
+      <c r="D73" s="39"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="39">
+        <v>30</v>
+      </c>
+      <c r="D75" s="39"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="H28:H32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E77:G1048576">
+    <cfRule type="containsBlanks" dxfId="14" priority="11">
+      <formula>LEN(TRIM(E77))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"使用该军团的队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"卡牌自身"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"所在队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>"全局"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G19 E21:G76 E20:F20">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
+      <formula>LEN(TRIM(E1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"使用该军团的队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"卡牌自身"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"所在队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"全局"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"使用该军团的队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"卡牌自身"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"所在队伍"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"全局"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/national_corps军团表.xlsx
+++ b/Excel/镇魂街/national_corps军团表.xlsx
@@ -1,47 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39476D9-9B29-4748-BF35-6C92A30CAC40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
     <sheet name="军团" sheetId="5" r:id="rId2"/>
     <sheet name="军团效果查询表" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>地形
@@ -61,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>sheet名</t>
   </si>
@@ -392,7 +377,7 @@
     <t>ui_dtex_Item_1603007</t>
   </si>
   <si>
-    <t>&lt;color=#444443&gt;征兵资源消耗减少</t>
+    <t>&lt;color=#444443&gt;征兵资源消耗减少&lt;/color&gt;</t>
   </si>
   <si>
     <t>木</t>
@@ -517,7 +502,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际产量=(占领资源点产量+科技数值产量)*(1+联盟加成%+</t>
@@ -527,7 +511,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成%</t>
@@ -537,7 +520,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -547,7 +529,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -557,7 +538,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)+联盟占领城市加成</t>
@@ -602,7 +582,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=基础上限+</t>
@@ -612,7 +591,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技增加</t>
@@ -622,7 +600,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -632,7 +609,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋增加</t>
@@ -653,7 +629,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际获得量=基础获得量*(1+</t>
@@ -663,7 +638,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -673,7 +647,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -683,7 +656,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -693,7 +665,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -729,7 +700,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际采集时间=基础采集时间/(1+科技加成%+</t>
@@ -739,7 +709,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -749,7 +718,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -770,7 +738,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际获得量=基础获得量*(1+</t>
@@ -780,7 +747,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -790,7 +756,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -800,7 +765,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -810,7 +774,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+军团加成%)</t>
@@ -828,7 +791,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际行军时间=基础行军时间/(1+</t>
@@ -838,7 +800,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -848,7 +809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -858,7 +818,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -868,7 +827,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+军团加成%)</t>
@@ -886,7 +844,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际科研时间=基础科研时间/(1+</t>
@@ -896,7 +853,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -906,7 +862,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -916,7 +871,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成%</t>
@@ -926,7 +880,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -947,7 +900,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=卡牌基础上限+</t>
@@ -957,7 +909,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技增加</t>
@@ -967,7 +918,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -977,7 +927,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋增加</t>
@@ -987,7 +936,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+军团增加</t>
@@ -1005,7 +953,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>卡牌总行动力恢复速率=基础速率/(1+</t>
@@ -1015,7 +962,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1025,7 +971,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -1035,7 +980,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成</t>
@@ -1045,7 +989,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%)</t>
@@ -1063,7 +1006,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际征募时间=基础征募时间/(1+</t>
@@ -1073,7 +1015,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1083,7 +1024,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -1093,7 +1033,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成</t>
@@ -1103,7 +1042,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+军团加成%)</t>
@@ -1121,7 +1059,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=卡牌基础上限+</t>
@@ -1131,7 +1068,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技增加</t>
@@ -1141,7 +1077,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -1151,7 +1086,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋增加</t>
@@ -1169,7 +1103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=城镇基础上限+</t>
@@ -1179,7 +1112,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技增加</t>
@@ -1189,7 +1121,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -1199,7 +1130,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋增加</t>
@@ -1217,7 +1147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>恢复速率=基础速率/(1+</t>
@@ -1227,7 +1156,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1237,7 +1165,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+军团加成%)        有军团加成的参照下方id40</t>
@@ -1255,7 +1182,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=基础上限+</t>
@@ -1265,7 +1191,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技增加</t>
@@ -1334,7 +1259,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际行军时间=基础行军时间/(1+</t>
@@ -1344,7 +1268,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1354,7 +1277,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -1364,7 +1286,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成</t>
@@ -1374,7 +1295,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%)</t>
@@ -1386,7 +1306,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际征募时间=基础征募时间/(1+</t>
@@ -1396,7 +1315,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1406,7 +1324,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+</t>
@@ -1416,7 +1333,6 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>天赋加成</t>
@@ -1426,7 +1342,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%)</t>
@@ -1453,7 +1368,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际恢复时间=基础时间/(1+</t>
@@ -1463,7 +1377,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1473,7 +1386,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>%+军团加成%)</t>
@@ -1503,7 +1415,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实际上限=声望对应上限+</t>
@@ -1513,7 +1424,6 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>科技加成</t>
@@ -1601,8 +1511,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,7 +1530,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1622,38 +1537,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,7 +1705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,8 +1733,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1751,25 +1980,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,6 +2253,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1788,7 +2271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1805,183 +2288,152 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="51">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="31" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="51" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="31" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="31">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Grid" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="英文标题" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="中文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="14"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="Grid" xfId="31"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="中文标题" xfId="51"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="9" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1990,9 +2442,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2250,19 +2699,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -2273,241 +2722,242 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="15" spans="1:9">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="40" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="39" t="b">
+      <c r="E2" s="43"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:9" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" s="40" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39" t="b">
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="83.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="92.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="19.25" style="1" customWidth="1"/>
     <col min="14" max="15" width="20" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.75" style="1" customWidth="1"/>
@@ -2535,156 +2985,156 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" ht="15" spans="1:59">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AL1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AM1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AN1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AO1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2818,218 +3268,218 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="3" s="24" customFormat="1" ht="49.5" customHeight="1" spans="1:44">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="20" t="s">
+      <c r="AH3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="20" t="s">
+      <c r="AJ3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="20" t="s">
+      <c r="AK3" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AL3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AM3" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" s="20" t="s">
+      <c r="AO3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="AP3" s="20" t="s">
+      <c r="AP3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+    <row r="4" spans="1:43">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="27"/>
-      <c r="U4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="31"/>
+      <c r="U4" s="31"/>
       <c r="Y4" s="1">
         <v>2</v>
       </c>
       <c r="AB4" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD4" s="1">
         <v>5</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF4" s="1">
         <v>5</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH4" s="1">
         <v>2</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ4" s="1">
         <v>5</v>
       </c>
-      <c r="AK4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AQ4" s="33"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="AK4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AQ4" s="38"/>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="22" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="1">
@@ -3044,10 +3494,10 @@
       <c r="J5" s="1">
         <v>6102008</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="29">
         <v>40</v>
       </c>
       <c r="M5" s="1">
@@ -3059,9 +3509,9 @@
       <c r="O5" s="1">
         <v>6101006</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="P5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="V5" s="31"/>
       <c r="Y5" s="1">
         <v>1</v>
       </c>
@@ -3074,70 +3524,70 @@
       <c r="AB5" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC5" s="33" t="s">
+      <c r="AC5" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD5" s="1">
         <v>4</v>
       </c>
-      <c r="AE5" s="33" t="s">
+      <c r="AE5" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF5" s="1">
         <v>6</v>
       </c>
-      <c r="AG5" s="33" t="s">
+      <c r="AG5" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH5" s="1">
         <v>3</v>
       </c>
-      <c r="AI5" s="33" t="s">
+      <c r="AI5" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ5" s="1">
         <v>4</v>
       </c>
-      <c r="AK5" s="33" t="s">
+      <c r="AK5" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL5" s="1">
         <v>10000</v>
       </c>
-      <c r="AM5" s="33" t="s">
+      <c r="AM5" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN5" s="1">
         <v>10000</v>
       </c>
-      <c r="AO5" s="33" t="s">
+      <c r="AO5" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP5" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ5" s="33" t="s">
+      <c r="AQ5" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR5" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+    <row r="6" spans="1:44">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="20" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="1">
@@ -3152,10 +3602,10 @@
       <c r="J6" s="1">
         <v>6102009</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="29">
         <v>17</v>
       </c>
       <c r="M6" s="1">
@@ -3167,9 +3617,9 @@
       <c r="O6" s="1">
         <v>6101007</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="V6" s="27"/>
+      <c r="P6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="V6" s="31"/>
       <c r="Y6" s="1">
         <v>1</v>
       </c>
@@ -3182,70 +3632,70 @@
       <c r="AB6" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC6" s="33" t="s">
+      <c r="AC6" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD6" s="1">
         <v>6</v>
       </c>
-      <c r="AE6" s="33" t="s">
+      <c r="AE6" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF6" s="1">
         <v>5</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH6" s="1">
         <v>2</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ6" s="1">
         <v>4</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AK6" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL6" s="1">
         <v>10000</v>
       </c>
-      <c r="AM6" s="33" t="s">
+      <c r="AM6" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN6" s="1">
         <v>10000</v>
       </c>
-      <c r="AO6" s="33" t="s">
+      <c r="AO6" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP6" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ6" s="33" t="s">
+      <c r="AQ6" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR6" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+    <row r="7" spans="1:44">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="29">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="20" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="1">
@@ -3260,10 +3710,10 @@
       <c r="J7" s="1">
         <v>6102010</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="29">
         <v>31</v>
       </c>
       <c r="M7" s="1">
@@ -3275,9 +3725,9 @@
       <c r="O7" s="1">
         <v>6101008</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="V7" s="27"/>
+      <c r="P7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="V7" s="31"/>
       <c r="Y7" s="1">
         <v>1</v>
       </c>
@@ -3290,70 +3740,70 @@
       <c r="AB7" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC7" s="33" t="s">
+      <c r="AC7" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD7" s="1">
         <v>6</v>
       </c>
-      <c r="AE7" s="33" t="s">
+      <c r="AE7" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF7" s="1">
         <v>3</v>
       </c>
-      <c r="AG7" s="33" t="s">
+      <c r="AG7" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH7" s="1">
         <v>2</v>
       </c>
-      <c r="AI7" s="33" t="s">
+      <c r="AI7" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ7" s="1">
         <v>6</v>
       </c>
-      <c r="AK7" s="33" t="s">
+      <c r="AK7" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL7" s="1">
         <v>10000</v>
       </c>
-      <c r="AM7" s="33" t="s">
+      <c r="AM7" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN7" s="1">
         <v>10000</v>
       </c>
-      <c r="AO7" s="33" t="s">
+      <c r="AO7" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP7" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ7" s="33" t="s">
+      <c r="AQ7" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR7" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+    <row r="8" spans="1:44">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="29">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="20" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="1">
@@ -3368,10 +3818,10 @@
       <c r="J8" s="1">
         <v>6102011</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="29">
         <v>43</v>
       </c>
       <c r="M8" s="1">
@@ -3383,9 +3833,9 @@
       <c r="O8" s="1">
         <v>6101009</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="V8" s="27"/>
+      <c r="P8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="V8" s="31"/>
       <c r="Y8" s="1">
         <v>1</v>
       </c>
@@ -3398,70 +3848,70 @@
       <c r="AB8" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC8" s="33" t="s">
+      <c r="AC8" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD8" s="1">
         <v>3</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AE8" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF8" s="1">
         <v>6</v>
       </c>
-      <c r="AG8" s="33" t="s">
+      <c r="AG8" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH8" s="1">
         <v>3</v>
       </c>
-      <c r="AI8" s="33" t="s">
+      <c r="AI8" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ8" s="1">
         <v>5</v>
       </c>
-      <c r="AK8" s="33" t="s">
+      <c r="AK8" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL8" s="1">
         <v>10000</v>
       </c>
-      <c r="AM8" s="33" t="s">
+      <c r="AM8" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN8" s="1">
         <v>10000</v>
       </c>
-      <c r="AO8" s="33" t="s">
+      <c r="AO8" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP8" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ8" s="33" t="s">
+      <c r="AQ8" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR8" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+    <row r="9" spans="1:44">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="29">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="20" t="s">
         <v>128</v>
       </c>
       <c r="G9" s="1">
@@ -3476,10 +3926,10 @@
       <c r="J9" s="1">
         <v>6102012</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="29">
         <v>42</v>
       </c>
       <c r="M9" s="1">
@@ -3491,9 +3941,9 @@
       <c r="O9" s="1">
         <v>6102002</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="V9" s="27"/>
+      <c r="P9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="V9" s="31"/>
       <c r="Y9" s="1">
         <v>1</v>
       </c>
@@ -3506,67 +3956,67 @@
       <c r="AB9" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC9" s="33" t="s">
+      <c r="AC9" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD9" s="1">
         <v>5</v>
       </c>
-      <c r="AE9" s="33" t="s">
+      <c r="AE9" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF9" s="1">
         <v>4</v>
       </c>
-      <c r="AG9" s="33" t="s">
+      <c r="AG9" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH9" s="1">
         <v>2</v>
       </c>
-      <c r="AI9" s="33" t="s">
+      <c r="AI9" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ9" s="1">
         <v>6</v>
       </c>
-      <c r="AK9" s="33" t="s">
+      <c r="AK9" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL9" s="1">
         <v>10000</v>
       </c>
-      <c r="AM9" s="33" t="s">
+      <c r="AM9" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN9" s="1">
         <v>10000</v>
       </c>
-      <c r="AO9" s="33" t="s">
+      <c r="AO9" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP9" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ9" s="33" t="s">
+      <c r="AQ9" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR9" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+    <row r="10" spans="1:44">
+      <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="29">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="29" t="s">
         <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3584,10 +4034,10 @@
       <c r="J10" s="1">
         <v>6102013</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="29">
         <v>41</v>
       </c>
       <c r="M10" s="1">
@@ -3599,9 +4049,9 @@
       <c r="O10" s="1">
         <v>6102002</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="V10" s="27"/>
+      <c r="P10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="V10" s="31"/>
       <c r="Y10" s="1">
         <v>1</v>
       </c>
@@ -3614,641 +4064,642 @@
       <c r="AB10" s="1">
         <v>0.33</v>
       </c>
-      <c r="AC10" s="33" t="s">
+      <c r="AC10" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AD10" s="1">
         <v>6</v>
       </c>
-      <c r="AE10" s="33" t="s">
+      <c r="AE10" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AF10" s="1">
         <v>5</v>
       </c>
-      <c r="AG10" s="33" t="s">
+      <c r="AG10" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AH10" s="1">
         <v>3</v>
       </c>
-      <c r="AI10" s="33" t="s">
+      <c r="AI10" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AJ10" s="1">
         <v>3</v>
       </c>
-      <c r="AK10" s="33" t="s">
+      <c r="AK10" s="38" t="s">
         <v>106</v>
       </c>
       <c r="AL10" s="1">
         <v>10000</v>
       </c>
-      <c r="AM10" s="33" t="s">
+      <c r="AM10" s="38" t="s">
         <v>107</v>
       </c>
       <c r="AN10" s="1">
         <v>10000</v>
       </c>
-      <c r="AO10" s="33" t="s">
+      <c r="AO10" s="38" t="s">
         <v>108</v>
       </c>
       <c r="AP10" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ10" s="33" t="s">
+      <c r="AQ10" s="38" t="s">
         <v>109</v>
       </c>
       <c r="AR10" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27"/>
-      <c r="U11" s="27"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="27"/>
-      <c r="U12" s="27"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27"/>
-      <c r="U13" s="27"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="27"/>
-      <c r="U14" s="27"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27"/>
-      <c r="U15" s="27"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="27"/>
-      <c r="U16" s="27"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="27"/>
-      <c r="U17" s="27"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="27"/>
-      <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="27"/>
-      <c r="U19" s="27"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="27"/>
-      <c r="U20" s="27"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="27"/>
-      <c r="U21" s="27"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="27"/>
-      <c r="U22" s="27"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="27"/>
-      <c r="U23" s="27"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="27"/>
-      <c r="U24" s="27"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="27"/>
-      <c r="U25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="27"/>
-      <c r="U26" s="27"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="27"/>
-      <c r="U27" s="27"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="27"/>
-      <c r="U28" s="27"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="27"/>
-      <c r="U29" s="27"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="27"/>
-      <c r="U30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="27"/>
-      <c r="U31" s="27"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="27"/>
-      <c r="U32" s="27"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="27"/>
-      <c r="U33" s="27"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="27"/>
-      <c r="U34" s="27"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="27"/>
-      <c r="U35" s="27"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="27"/>
-      <c r="U36" s="27"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="27"/>
-      <c r="U37" s="27"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="27"/>
-      <c r="U38" s="27"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="27"/>
-      <c r="U39" s="27"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="U40" s="27"/>
+    <row r="11" spans="1:21">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="31"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="31"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="31"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="31"/>
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="31"/>
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="31"/>
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="31"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="31"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="31"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="31"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="31"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="31"/>
+      <c r="U24" s="31"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="31"/>
+      <c r="U25" s="31"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="31"/>
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="31"/>
+      <c r="U27" s="31"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="31"/>
+      <c r="U28" s="31"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="31"/>
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="31"/>
+      <c r="U30" s="31"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="31"/>
+      <c r="U31" s="31"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="31"/>
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="31"/>
+      <c r="U33" s="31"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="31"/>
+      <c r="U34" s="31"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="31"/>
+      <c r="U35" s="31"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="31"/>
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="31"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="31"/>
+      <c r="U38" s="31"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="31"/>
+      <c r="U39" s="31"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="U40" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60:B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
@@ -4260,1313 +4711,1313 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="44" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+    <row r="24" spans="1:8">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+    <row r="27" spans="1:8">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+    <row r="28" spans="1:8">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="44" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+    <row r="29" spans="1:8">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="G29" s="8"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="45"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="G30" s="8"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="G32" s="8"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="37" spans="1:8">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+    <row r="38" spans="1:8">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+    <row r="41" spans="1:8">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+    <row r="43" spans="1:8">
+      <c r="A43" s="13">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+    <row r="44" spans="1:8">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+    <row r="47" spans="1:8">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13">
         <v>47</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="14">
         <v>49</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="20">
         <v>15</v>
       </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="16" t="s">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="21"/>
+      <c r="B61" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="20">
         <v>20</v>
       </c>
-      <c r="D63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="16" t="s">
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="21"/>
+      <c r="B64" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="21"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="20">
         <v>20</v>
       </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="16" t="s">
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="21"/>
+      <c r="B67" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="20">
         <v>20</v>
       </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="16" t="s">
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="21"/>
+      <c r="B70" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="21"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="16" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="21"/>
+      <c r="B73" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="20">
         <v>15</v>
       </c>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="21"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="20">
         <v>30</v>
       </c>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16" t="s">
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5575,58 +6026,58 @@
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H28:H32"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"使用该军团的队伍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"卡牌自身"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"所在队伍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"全局"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G19 E21:G76 E20:F20">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"使用该军团的队伍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"卡牌自身"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"所在队伍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"全局"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G1048576">
-    <cfRule type="containsBlanks" dxfId="4" priority="11">
+    <cfRule type="containsBlanks" dxfId="0" priority="11">
       <formula>LEN(TRIM(E77))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>"使用该军团的队伍"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"卡牌自身"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"所在队伍"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"全局"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/national_corps军团表.xlsx
+++ b/Excel/镇魂街/national_corps军团表.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
   <si>
     <t>sheet名</t>
   </si>
@@ -93,6 +93,21 @@
     <t>Name</t>
   </si>
   <si>
+    <t>CorpsType</t>
+  </si>
+  <si>
+    <t>CounterType</t>
+  </si>
+  <si>
+    <t>CounterAtk</t>
+  </si>
+  <si>
+    <t>CounterDef</t>
+  </si>
+  <si>
+    <t>CorpsTypeIcon</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -225,24 +240,24 @@
     <t>string:&lt;&gt;</t>
   </si>
   <si>
+    <t>int:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
     <t>string:e&lt;&gt;</t>
   </si>
   <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
     <t>string:e&lt;</t>
   </si>
   <si>
-    <t>float:e&lt;&gt;</t>
-  </si>
-  <si>
     <t>float:e&lt;</t>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-  </si>
-  <si>
     <t>item_id:e&lt;&gt;</t>
   </si>
   <si>
@@ -256,6 +271,22 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>军团克制类型</t>
+  </si>
+  <si>
+    <t>克制关系
+填被克制的军团克制类型</t>
+  </si>
+  <si>
+    <t>克制攻击加成</t>
+  </si>
+  <si>
+    <t>克制减伤加成</t>
+  </si>
+  <si>
+    <t>克制类型图标</t>
   </si>
   <si>
     <t>描述</t>
@@ -374,7 +405,10 @@
     <t>镇魂铁卫</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603007</t>
+    <t>ui_dtex_crops_10011</t>
+  </si>
+  <si>
+    <t>ui_dtex_crops_10010</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;征兵资源消耗减少&lt;/color&gt;</t>
@@ -395,7 +429,10 @@
     <t>虎豹王骑</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603008</t>
+    <t>ui_dtex_crops_10001</t>
+  </si>
+  <si>
+    <t>ui_dtex_crops_10005</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;驻守时受到伤害降低&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -410,7 +447,10 @@
     <t>车下灵卫</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603009</t>
+    <t>ui_dtex_crops_10003</t>
+  </si>
+  <si>
+    <t>ui_dtex_crops_10004</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;采集产量收益提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -422,7 +462,10 @@
     <t>无当玄军</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603010</t>
+    <t>ui_dtex_crops_10002</t>
+  </si>
+  <si>
+    <t>ui_dtex_crops_10008</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;征募消耗降低&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -431,7 +474,7 @@
     <t>魔导军团</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603011</t>
+    <t>ui_dtex_crops_10006</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;行军速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -443,7 +486,7 @@
     <t>天罡武灵</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603012</t>
+    <t>ui_dtex_crops_10007</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;队伍内卡牌行动力上限增加&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -455,7 +498,7 @@
     <t>隐灵甲士</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1603013</t>
+    <t>ui_dtex_crops_10009</t>
   </si>
   <si>
     <t>&lt;color=#444443&gt;城镇剿匪行军速度提高&lt;/color&gt;&lt;color=#3c8a3e&gt;%s&lt;/color&gt;</t>
@@ -1513,10 +1556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1541,7 +1584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,6 +1599,45 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,8 +1651,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,105 +1727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
@@ -1696,7 +1739,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,91 +1778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +1802,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,73 +1916,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,41 +2021,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,6 +2053,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2049,6 +2073,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,11 +2109,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2084,10 +2121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2096,19 +2133,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2117,118 +2154,118 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
@@ -2303,6 +2340,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2313,8 +2352,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2941,51 +2978,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BG40"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="25" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="10" width="20.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="92.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="19.25" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.375" style="1" customWidth="1"/>
-    <col min="19" max="24" width="12.125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.75" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.75" style="1" customWidth="1"/>
-    <col min="29" max="31" width="16.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.25" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.25" style="1" customWidth="1"/>
-    <col min="38" max="38" width="17.125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="16.25" style="1" customWidth="1"/>
-    <col min="40" max="40" width="17.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="16.25" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="16.25" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.125" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="1"/>
+    <col min="4" max="7" width="12.875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="26" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="83.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="92.125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="19.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" style="1" customWidth="1"/>
+    <col min="24" max="29" width="12.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.75" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.75" style="1" customWidth="1"/>
+    <col min="34" max="36" width="16.25" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="16.25" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="16.25" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="16.25" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="16.25" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="16.25" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="15" spans="1:59">
+    <row r="1" s="23" customFormat="1" ht="15" spans="1:64">
       <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
@@ -3031,19 +3070,19 @@
       <c r="O1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="23" t="s">
         <v>31</v>
       </c>
       <c r="U1" s="37" t="s">
@@ -3058,19 +3097,19 @@
       <c r="X1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="AD1" s="23" t="s">
@@ -3118,11 +3157,21 @@
       <c r="AR1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
+      <c r="AS1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="AX1" s="39"/>
       <c r="AY1" s="39"/>
       <c r="AZ1" s="39"/>
@@ -3133,276 +3182,311 @@
       <c r="BE1" s="39"/>
       <c r="BF1" s="39"/>
       <c r="BG1" s="39"/>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>66</v>
-      </c>
       <c r="AE2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AP2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AQ2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AR2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" s="24" customFormat="1" ht="49.5" customHeight="1" spans="1:44">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="49.5" customHeight="1" spans="1:49">
       <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="47" t="s">
         <v>74</v>
       </c>
+      <c r="D3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="I3" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>89</v>
       </c>
       <c r="T3" s="47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="Y3" s="47" t="s">
         <v>94</v>
       </c>
+      <c r="Z3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="AE3" s="24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AG3" s="24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AH3" s="24" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AI3" s="24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AJ3" s="24" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AK3" s="24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL3" s="24" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AM3" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AN3" s="24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AO3" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AP3" s="24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AQ3" s="24" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AR3" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>110</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:49">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -3410,62 +3494,93 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+        <v>113</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-      <c r="P4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="Y4" s="1">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AD4" s="1">
         <v>2</v>
       </c>
-      <c r="AB4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AQ4" s="38"/>
-    </row>
-    <row r="5" spans="1:44">
+      <c r="AG4" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH4" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP4" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -3473,107 +3588,122 @@
         <v>2</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="1">
+        <v>121</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="1">
         <v>39</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6102008</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="29">
-        <v>40</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6102008</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
         <v>0.3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="T5" s="1">
         <v>6101006</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="Y5" s="1">
+      <c r="U5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AD5" s="1">
         <v>1</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" s="1">
+      <c r="AE5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF5" s="1">
         <v>20</v>
       </c>
-      <c r="AB5" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL5" s="1">
+      <c r="AG5" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH5" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ5" s="1">
         <v>10000</v>
       </c>
-      <c r="AM5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN5" s="1">
+      <c r="AR5" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS5" s="1">
         <v>10000</v>
       </c>
-      <c r="AO5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP5" s="1">
+      <c r="AT5" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU5" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ5" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR5" s="1">
+      <c r="AV5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW5" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:49">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -3581,107 +3711,122 @@
         <v>3</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="1">
+        <v>127</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="1">
         <v>12</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6102009</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="29">
-        <v>17</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6102009</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>17</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
         <v>0.1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="T6" s="1">
         <v>6101007</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="Y6" s="1">
+      <c r="U6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AD6" s="1">
         <v>1</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="AE6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF6" s="1">
         <v>20</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK6" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="AG6" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH6" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP6" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ6" s="1">
         <v>10000</v>
       </c>
-      <c r="AM6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN6" s="1">
+      <c r="AR6" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS6" s="1">
         <v>10000</v>
       </c>
-      <c r="AO6" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP6" s="1">
+      <c r="AT6" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU6" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ6" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR6" s="1">
+      <c r="AV6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW6" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:49">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -3689,107 +3834,122 @@
         <v>4</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="1">
+        <v>132</v>
+      </c>
+      <c r="D7" s="30">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="1">
         <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6102010</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="29">
-        <v>31</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6102010</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
         <v>0.1</v>
       </c>
-      <c r="O7" s="1">
+      <c r="T7" s="1">
         <v>6101008</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="Y7" s="1">
+      <c r="U7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AD7" s="1">
         <v>1</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA7" s="1">
+      <c r="AE7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF7" s="1">
         <v>20</v>
       </c>
-      <c r="AB7" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI7" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL7" s="1">
+      <c r="AG7" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL7" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>10000</v>
       </c>
-      <c r="AM7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN7" s="1">
+      <c r="AR7" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS7" s="1">
         <v>10000</v>
       </c>
-      <c r="AO7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP7" s="1">
+      <c r="AT7" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU7" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ7" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR7" s="1">
+      <c r="AV7" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW7" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:49">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -3797,107 +3957,122 @@
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="1">
+        <v>136</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="1">
         <v>15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6102011</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="29">
-        <v>43</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6102011</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>43</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
         <v>0.15</v>
       </c>
-      <c r="O8" s="1">
+      <c r="T8" s="1">
         <v>6101009</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="Y8" s="1">
+      <c r="U8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AD8" s="1">
         <v>1</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA8" s="1">
+      <c r="AE8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF8" s="1">
         <v>20</v>
       </c>
-      <c r="AB8" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC8" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI8" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK8" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AG8" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>10000</v>
       </c>
-      <c r="AM8" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN8" s="1">
+      <c r="AR8" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS8" s="1">
         <v>10000</v>
       </c>
-      <c r="AO8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP8" s="1">
+      <c r="AT8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU8" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ8" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR8" s="1">
+      <c r="AV8" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW8" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:49">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -3905,107 +4080,122 @@
         <v>6</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="33"/>
+      <c r="J9" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="1">
         <v>32</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6102012</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="29">
-        <v>42</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6102012</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>42</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>0.1</v>
       </c>
-      <c r="O9" s="1">
+      <c r="T9" s="1">
         <v>6102002</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="Y9" s="1">
+      <c r="U9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AD9" s="1">
         <v>1</v>
       </c>
-      <c r="Z9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA9" s="1">
+      <c r="AE9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF9" s="1">
         <v>20</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC9" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK9" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AG9" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH9" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL9" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP9" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>10000</v>
       </c>
-      <c r="AM9" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN9" s="1">
+      <c r="AR9" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS9" s="1">
         <v>10000</v>
       </c>
-      <c r="AO9" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP9" s="1">
+      <c r="AT9" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU9" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ9" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR9" s="1">
+      <c r="AV9" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW9" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:49">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -4013,674 +4203,839 @@
         <v>7</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="1">
+        <v>144</v>
+      </c>
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="1">
         <v>33</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>6102013</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="29">
-        <v>41</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6102013</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>41</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>0.15</v>
       </c>
-      <c r="O10" s="1">
+      <c r="T10" s="1">
         <v>6102002</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="Y10" s="1">
+      <c r="U10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AD10" s="1">
         <v>1</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA10" s="1">
+      <c r="AE10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF10" s="1">
         <v>20</v>
       </c>
-      <c r="AB10" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="AC10" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>6</v>
-      </c>
-      <c r="AE10" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL10" s="1">
+      <c r="AG10" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL10" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP10" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ10" s="1">
         <v>10000</v>
       </c>
-      <c r="AM10" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN10" s="1">
+      <c r="AR10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS10" s="1">
         <v>10000</v>
       </c>
-      <c r="AO10" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP10" s="1">
+      <c r="AT10" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU10" s="1">
         <v>10000</v>
       </c>
-      <c r="AQ10" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR10" s="1">
+      <c r="AV10" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW10" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:26">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="31"/>
-      <c r="U11" s="31"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="33"/>
+      <c r="Z11" s="33"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="31"/>
-      <c r="U12" s="31"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="33"/>
+      <c r="Z12" s="33"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="31"/>
-      <c r="U13" s="31"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="33"/>
+      <c r="Z13" s="33"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="31"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="33"/>
+      <c r="Z14" s="33"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="31"/>
-      <c r="U15" s="31"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="33"/>
+      <c r="Z15" s="33"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="31"/>
-      <c r="U16" s="31"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="33"/>
+      <c r="Z16" s="33"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="31"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="33"/>
+      <c r="Z17" s="33"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="31"/>
-      <c r="U18" s="31"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="33"/>
+      <c r="Z18" s="33"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="31"/>
-      <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="33"/>
+      <c r="Z19" s="33"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="31"/>
-      <c r="U20" s="31"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="33"/>
+      <c r="Z20" s="33"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="31"/>
-      <c r="U21" s="31"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="33"/>
+      <c r="Z21" s="33"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="31"/>
-      <c r="U22" s="31"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="33"/>
+      <c r="Z22" s="33"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="31"/>
-      <c r="U23" s="31"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="33"/>
+      <c r="Z23" s="33"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="31"/>
-      <c r="U24" s="31"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="33"/>
+      <c r="Z24" s="33"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="31"/>
-      <c r="U25" s="31"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="33"/>
+      <c r="Z25" s="33"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="31"/>
-      <c r="U26" s="31"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="33"/>
+      <c r="Z26" s="33"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="31"/>
-      <c r="U27" s="31"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="33"/>
+      <c r="Z27" s="33"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="31"/>
-      <c r="U28" s="31"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="33"/>
+      <c r="Z28" s="33"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="31"/>
-      <c r="U29" s="31"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="33"/>
+      <c r="Z29" s="33"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="31"/>
-      <c r="U30" s="31"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="33"/>
+      <c r="Z30" s="33"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="31"/>
-      <c r="U31" s="31"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="33"/>
+      <c r="Z31" s="33"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="31"/>
-      <c r="U32" s="31"/>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="33"/>
+      <c r="Z32" s="33"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="31"/>
-      <c r="U33" s="31"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="33"/>
+      <c r="Z33" s="33"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="31"/>
-      <c r="U34" s="31"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="33"/>
+      <c r="Z34" s="33"/>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="31"/>
-      <c r="U35" s="31"/>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="33"/>
+      <c r="Z35" s="33"/>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="31"/>
-      <c r="U36" s="31"/>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="33"/>
+      <c r="Z36" s="33"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="31"/>
-      <c r="U37" s="31"/>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="33"/>
+      <c r="Z37" s="33"/>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="31"/>
-      <c r="U38" s="31"/>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="33"/>
+      <c r="Z38" s="33"/>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="31"/>
-      <c r="U39" s="31"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="U40" s="31"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="33"/>
+      <c r="Z39" s="33"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="Z40" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4717,7 +5072,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4725,28 +5080,28 @@
     </row>
     <row r="2" ht="15" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4754,23 +5109,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4778,19 +5133,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="10"/>
@@ -4800,19 +5155,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="10"/>
@@ -4822,19 +5177,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10"/>
@@ -4844,19 +5199,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="11"/>
@@ -4866,23 +5221,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4890,23 +5245,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4914,19 +5269,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="10"/>
@@ -4936,19 +5291,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="10"/>
@@ -4958,19 +5313,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
@@ -4980,23 +5335,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5004,25 +5359,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5030,25 +5385,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5056,23 +5411,23 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5080,25 +5435,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5106,23 +5461,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5130,25 +5485,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5156,23 +5511,23 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5180,21 +5535,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5202,21 +5557,21 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5224,21 +5579,21 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5246,19 +5601,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -5268,19 +5623,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -5290,21 +5645,21 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5312,21 +5667,21 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5334,23 +5689,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="9" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5358,19 +5713,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="10"/>
@@ -5380,19 +5735,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="10"/>
@@ -5402,19 +5757,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="10"/>
@@ -5424,19 +5779,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="11"/>
@@ -5446,22 +5801,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -5470,20 +5825,20 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -5492,20 +5847,20 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -5514,21 +5869,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5536,21 +5891,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5558,17 +5913,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -5578,17 +5933,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -5598,21 +5953,21 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5620,16 +5975,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -5638,19 +5993,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5658,19 +6013,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5678,16 +6033,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -5696,16 +6051,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -5714,21 +6069,21 @@
         <v>44</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5736,16 +6091,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -5756,16 +6111,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -5776,16 +6131,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -5796,16 +6151,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -5816,16 +6171,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -5836,16 +6191,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -5853,13 +6208,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D58" s="20"/>
     </row>
@@ -5871,10 +6226,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="19" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C60" s="20">
         <v>15</v>
@@ -5884,7 +6239,7 @@
     <row r="61" spans="1:4">
       <c r="A61" s="21"/>
       <c r="B61" s="20" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -5897,10 +6252,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="19" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C63" s="20">
         <v>20</v>
@@ -5910,7 +6265,7 @@
     <row r="64" spans="1:4">
       <c r="A64" s="21"/>
       <c r="B64" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -5923,10 +6278,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="19" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C66" s="20">
         <v>20</v>
@@ -5936,7 +6291,7 @@
     <row r="67" spans="1:4">
       <c r="A67" s="21"/>
       <c r="B67" s="20" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -5949,10 +6304,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="19" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C69" s="20">
         <v>20</v>
@@ -5962,7 +6317,7 @@
     <row r="70" spans="1:4">
       <c r="A70" s="21"/>
       <c r="B70" s="20" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -5975,10 +6330,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="19" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -5986,7 +6341,7 @@
     <row r="73" spans="1:4">
       <c r="A73" s="21"/>
       <c r="B73" s="20" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C73" s="20">
         <v>15</v>
@@ -6001,10 +6356,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="19" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C75" s="20">
         <v>30</v>
@@ -6014,7 +6369,7 @@
     <row r="76" spans="1:4">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
